--- a/templates/permiso_sin_goce_de_sueldo.xlsx
+++ b/templates/permiso_sin_goce_de_sueldo.xlsx
@@ -189,13 +189,6 @@
     </font>
     <font>
       <b/>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Arial Narrow"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
       <i/>
       <sz val="11"/>
       <color theme="1"/>
@@ -227,6 +220,13 @@
       <b/>
       <sz val="24"/>
       <color rgb="FF2F5496"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
       <name val="Arial Narrow"/>
       <family val="2"/>
     </font>
@@ -609,13 +609,13 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="15" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="17" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -630,12 +630,55 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="14" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -644,7 +687,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
@@ -655,88 +697,46 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1015,8 +1015,8 @@
   </sheetPr>
   <dimension ref="A1:U1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="91" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:G23"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="91" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22:M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1038,16 +1038,16 @@
   <sheetData>
     <row r="1" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
       <c r="O1" s="3"/>
@@ -1059,23 +1059,23 @@
       <c r="U1" s="3"/>
     </row>
     <row r="2" spans="2:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="51"/>
-      <c r="O2" s="51"/>
-      <c r="P2" s="51"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
@@ -1083,21 +1083,21 @@
       <c r="U2" s="1"/>
     </row>
     <row r="3" spans="2:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="51"/>
-      <c r="L3" s="51"/>
-      <c r="M3" s="51"/>
-      <c r="N3" s="51"/>
-      <c r="O3" s="51"/>
-      <c r="P3" s="51"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="26"/>
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
@@ -1135,25 +1135,25 @@
       <c r="E5" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="F5" s="52">
+      <c r="F5" s="27">
         <v>22</v>
       </c>
-      <c r="G5" s="53"/>
+      <c r="G5" s="28"/>
       <c r="H5" s="8"/>
       <c r="I5" s="9"/>
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
       <c r="M5" s="9"/>
-      <c r="N5" s="54" t="s">
+      <c r="N5" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="O5" s="54"/>
-      <c r="P5" s="54"/>
-      <c r="Q5" s="54"/>
-      <c r="R5" s="54"/>
-      <c r="S5" s="54"/>
-      <c r="T5" s="54"/>
+      <c r="O5" s="29"/>
+      <c r="P5" s="29"/>
+      <c r="Q5" s="29"/>
+      <c r="R5" s="29"/>
+      <c r="S5" s="29"/>
+      <c r="T5" s="29"/>
       <c r="U5" s="10"/>
     </row>
     <row r="6" spans="2:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1165,21 +1165,21 @@
       <c r="G6" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="55" t="s">
+      <c r="H6" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="56"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="56"/>
-      <c r="L6" s="56"/>
-      <c r="M6" s="56"/>
-      <c r="N6" s="56"/>
-      <c r="O6" s="56"/>
-      <c r="P6" s="56"/>
-      <c r="Q6" s="56"/>
-      <c r="R6" s="56"/>
-      <c r="S6" s="56"/>
-      <c r="T6" s="56"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+      <c r="P6" s="31"/>
+      <c r="Q6" s="31"/>
+      <c r="R6" s="31"/>
+      <c r="S6" s="31"/>
+      <c r="T6" s="31"/>
       <c r="U6" s="12"/>
     </row>
     <row r="7" spans="2:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1191,21 +1191,21 @@
       <c r="G7" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="48" t="s">
+      <c r="H7" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49"/>
-      <c r="K7" s="49"/>
-      <c r="L7" s="49"/>
-      <c r="M7" s="49"/>
-      <c r="N7" s="49"/>
-      <c r="O7" s="49"/>
-      <c r="P7" s="49"/>
-      <c r="Q7" s="49"/>
-      <c r="R7" s="49"/>
-      <c r="S7" s="49"/>
-      <c r="T7" s="49"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="39"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="39"/>
+      <c r="N7" s="39"/>
+      <c r="O7" s="39"/>
+      <c r="P7" s="39"/>
+      <c r="Q7" s="39"/>
+      <c r="R7" s="39"/>
+      <c r="S7" s="39"/>
+      <c r="T7" s="39"/>
       <c r="U7" s="12"/>
     </row>
     <row r="8" spans="2:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1217,21 +1217,21 @@
       <c r="G8" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H8" s="48" t="s">
+      <c r="H8" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="I8" s="49"/>
-      <c r="J8" s="49"/>
-      <c r="K8" s="49"/>
-      <c r="L8" s="49"/>
-      <c r="M8" s="49"/>
-      <c r="N8" s="49"/>
-      <c r="O8" s="49"/>
-      <c r="P8" s="49"/>
-      <c r="Q8" s="49"/>
-      <c r="R8" s="49"/>
-      <c r="S8" s="49"/>
-      <c r="T8" s="49"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="39"/>
+      <c r="L8" s="39"/>
+      <c r="M8" s="39"/>
+      <c r="N8" s="39"/>
+      <c r="O8" s="39"/>
+      <c r="P8" s="39"/>
+      <c r="Q8" s="39"/>
+      <c r="R8" s="39"/>
+      <c r="S8" s="39"/>
+      <c r="T8" s="39"/>
       <c r="U8" s="12"/>
     </row>
     <row r="9" spans="2:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1243,21 +1243,21 @@
       <c r="G9" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="48" t="s">
+      <c r="H9" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="I9" s="49"/>
-      <c r="J9" s="49"/>
-      <c r="K9" s="49"/>
-      <c r="L9" s="49"/>
-      <c r="M9" s="49"/>
-      <c r="N9" s="49"/>
-      <c r="O9" s="49"/>
-      <c r="P9" s="49"/>
-      <c r="Q9" s="49"/>
-      <c r="R9" s="49"/>
-      <c r="S9" s="49"/>
-      <c r="T9" s="49"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="39"/>
+      <c r="N9" s="39"/>
+      <c r="O9" s="39"/>
+      <c r="P9" s="39"/>
+      <c r="Q9" s="39"/>
+      <c r="R9" s="39"/>
+      <c r="S9" s="39"/>
+      <c r="T9" s="39"/>
       <c r="U9" s="13"/>
     </row>
     <row r="10" spans="2:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1269,21 +1269,21 @@
       <c r="G10" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="H10" s="48" t="s">
+      <c r="H10" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="I10" s="49"/>
-      <c r="J10" s="49"/>
-      <c r="K10" s="49"/>
-      <c r="L10" s="49"/>
-      <c r="M10" s="49"/>
-      <c r="N10" s="49"/>
-      <c r="O10" s="49"/>
-      <c r="P10" s="49"/>
-      <c r="Q10" s="49"/>
-      <c r="R10" s="49"/>
-      <c r="S10" s="49"/>
-      <c r="T10" s="49"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="39"/>
+      <c r="L10" s="39"/>
+      <c r="M10" s="39"/>
+      <c r="N10" s="39"/>
+      <c r="O10" s="39"/>
+      <c r="P10" s="39"/>
+      <c r="Q10" s="39"/>
+      <c r="R10" s="39"/>
+      <c r="S10" s="39"/>
+      <c r="T10" s="39"/>
       <c r="U10" s="13"/>
     </row>
     <row r="11" spans="2:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1295,21 +1295,21 @@
       <c r="G11" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H11" s="48" t="s">
+      <c r="H11" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="I11" s="49"/>
-      <c r="J11" s="49"/>
-      <c r="K11" s="49"/>
-      <c r="L11" s="49"/>
-      <c r="M11" s="49"/>
-      <c r="N11" s="49"/>
-      <c r="O11" s="49"/>
-      <c r="P11" s="49"/>
-      <c r="Q11" s="49"/>
-      <c r="R11" s="49"/>
-      <c r="S11" s="49"/>
-      <c r="T11" s="49"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="39"/>
+      <c r="K11" s="39"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="39"/>
+      <c r="N11" s="39"/>
+      <c r="O11" s="39"/>
+      <c r="P11" s="39"/>
+      <c r="Q11" s="39"/>
+      <c r="R11" s="39"/>
+      <c r="S11" s="39"/>
+      <c r="T11" s="39"/>
       <c r="U11" s="14"/>
     </row>
     <row r="12" spans="2:21" ht="14.4" x14ac:dyDescent="0.3">
@@ -1336,150 +1336,150 @@
     </row>
     <row r="13" spans="2:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="1"/>
-      <c r="C13" s="24" t="s">
+      <c r="C13" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="47" t="s">
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="I13" s="57"/>
-      <c r="J13" s="57"/>
-      <c r="K13" s="57"/>
-      <c r="L13" s="57"/>
-      <c r="M13" s="57"/>
-      <c r="N13" s="57"/>
-      <c r="O13" s="57"/>
-      <c r="P13" s="57"/>
-      <c r="Q13" s="57"/>
-      <c r="R13" s="57"/>
-      <c r="S13" s="57"/>
-      <c r="T13" s="58"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="36"/>
+      <c r="L13" s="36"/>
+      <c r="M13" s="36"/>
+      <c r="N13" s="36"/>
+      <c r="O13" s="36"/>
+      <c r="P13" s="36"/>
+      <c r="Q13" s="36"/>
+      <c r="R13" s="36"/>
+      <c r="S13" s="36"/>
+      <c r="T13" s="37"/>
       <c r="U13" s="15"/>
     </row>
     <row r="14" spans="2:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="1"/>
-      <c r="C14" s="24" t="s">
+      <c r="C14" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="47" t="s">
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="I14" s="57"/>
-      <c r="J14" s="57"/>
-      <c r="K14" s="57"/>
-      <c r="L14" s="57"/>
-      <c r="M14" s="57"/>
-      <c r="N14" s="57"/>
-      <c r="O14" s="57"/>
-      <c r="P14" s="57"/>
-      <c r="Q14" s="57"/>
-      <c r="R14" s="57"/>
-      <c r="S14" s="57"/>
-      <c r="T14" s="58"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="36"/>
+      <c r="K14" s="36"/>
+      <c r="L14" s="36"/>
+      <c r="M14" s="36"/>
+      <c r="N14" s="36"/>
+      <c r="O14" s="36"/>
+      <c r="P14" s="36"/>
+      <c r="Q14" s="36"/>
+      <c r="R14" s="36"/>
+      <c r="S14" s="36"/>
+      <c r="T14" s="37"/>
       <c r="U14" s="15"/>
     </row>
     <row r="15" spans="2:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="1"/>
-      <c r="C15" s="24" t="s">
+      <c r="C15" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="27" t="s">
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="I15" s="59"/>
-      <c r="J15" s="59"/>
-      <c r="K15" s="59"/>
-      <c r="L15" s="59"/>
-      <c r="M15" s="59"/>
-      <c r="N15" s="59"/>
-      <c r="O15" s="59"/>
-      <c r="P15" s="59"/>
-      <c r="Q15" s="59"/>
-      <c r="R15" s="59"/>
-      <c r="S15" s="59"/>
-      <c r="T15" s="60"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="41"/>
+      <c r="K15" s="41"/>
+      <c r="L15" s="41"/>
+      <c r="M15" s="41"/>
+      <c r="N15" s="41"/>
+      <c r="O15" s="41"/>
+      <c r="P15" s="41"/>
+      <c r="Q15" s="41"/>
+      <c r="R15" s="41"/>
+      <c r="S15" s="41"/>
+      <c r="T15" s="42"/>
       <c r="U15" s="17"/>
     </row>
     <row r="16" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="1"/>
-      <c r="C16" s="28" t="s">
+      <c r="C16" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="37" t="s">
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="29"/>
-      <c r="L16" s="29"/>
-      <c r="M16" s="29"/>
-      <c r="N16" s="29"/>
-      <c r="O16" s="29"/>
-      <c r="P16" s="29"/>
-      <c r="Q16" s="29"/>
-      <c r="R16" s="29"/>
-      <c r="S16" s="29"/>
-      <c r="T16" s="30"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="44"/>
+      <c r="K16" s="44"/>
+      <c r="L16" s="44"/>
+      <c r="M16" s="44"/>
+      <c r="N16" s="44"/>
+      <c r="O16" s="44"/>
+      <c r="P16" s="44"/>
+      <c r="Q16" s="44"/>
+      <c r="R16" s="44"/>
+      <c r="S16" s="44"/>
+      <c r="T16" s="45"/>
       <c r="U16" s="16"/>
     </row>
     <row r="17" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="1"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="32"/>
-      <c r="J17" s="32"/>
-      <c r="K17" s="32"/>
-      <c r="L17" s="32"/>
-      <c r="M17" s="32"/>
-      <c r="N17" s="32"/>
-      <c r="O17" s="32"/>
-      <c r="P17" s="32"/>
-      <c r="Q17" s="32"/>
-      <c r="R17" s="32"/>
-      <c r="S17" s="32"/>
-      <c r="T17" s="33"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="25"/>
+      <c r="N17" s="25"/>
+      <c r="O17" s="25"/>
+      <c r="P17" s="25"/>
+      <c r="Q17" s="25"/>
+      <c r="R17" s="25"/>
+      <c r="S17" s="25"/>
+      <c r="T17" s="47"/>
       <c r="U17" s="16"/>
     </row>
     <row r="18" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="1"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="35"/>
-      <c r="J18" s="35"/>
-      <c r="K18" s="35"/>
-      <c r="L18" s="35"/>
-      <c r="M18" s="35"/>
-      <c r="N18" s="35"/>
-      <c r="O18" s="35"/>
-      <c r="P18" s="35"/>
-      <c r="Q18" s="35"/>
-      <c r="R18" s="35"/>
-      <c r="S18" s="35"/>
-      <c r="T18" s="36"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="49"/>
+      <c r="J18" s="49"/>
+      <c r="K18" s="49"/>
+      <c r="L18" s="49"/>
+      <c r="M18" s="49"/>
+      <c r="N18" s="49"/>
+      <c r="O18" s="49"/>
+      <c r="P18" s="49"/>
+      <c r="Q18" s="49"/>
+      <c r="R18" s="49"/>
+      <c r="S18" s="49"/>
+      <c r="T18" s="50"/>
       <c r="U18" s="16"/>
     </row>
     <row r="19" spans="1:21" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1506,33 +1506,33 @@
       <c r="U19" s="1"/>
     </row>
     <row r="20" spans="1:21" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="38" t="s">
+      <c r="A20" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="38"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="38" t="s">
+      <c r="B20" s="52"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="52"/>
+      <c r="H20" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="I20" s="32"/>
-      <c r="J20" s="32"/>
-      <c r="K20" s="32"/>
-      <c r="L20" s="32"/>
-      <c r="M20" s="32"/>
-      <c r="N20" s="38" t="s">
+      <c r="I20" s="25"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="25"/>
+      <c r="M20" s="25"/>
+      <c r="N20" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="O20" s="32"/>
-      <c r="P20" s="32"/>
-      <c r="Q20" s="32"/>
-      <c r="R20" s="32"/>
-      <c r="S20" s="32"/>
-      <c r="T20" s="32"/>
-      <c r="U20" s="32"/>
+      <c r="O20" s="25"/>
+      <c r="P20" s="25"/>
+      <c r="Q20" s="25"/>
+      <c r="R20" s="25"/>
+      <c r="S20" s="25"/>
+      <c r="T20" s="25"/>
+      <c r="U20" s="25"/>
     </row>
     <row r="21" spans="1:21" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="22"/>
@@ -1558,62 +1558,62 @@
       <c r="U21" s="1"/>
     </row>
     <row r="22" spans="1:21" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="39" t="s">
+      <c r="A22" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="39"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="40"/>
-      <c r="H22" s="41" t="s">
+      <c r="B22" s="53"/>
+      <c r="C22" s="53"/>
+      <c r="D22" s="53"/>
+      <c r="E22" s="53"/>
+      <c r="F22" s="53"/>
+      <c r="G22" s="54"/>
+      <c r="H22" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="I22" s="61"/>
-      <c r="J22" s="61"/>
-      <c r="K22" s="61"/>
-      <c r="L22" s="61"/>
-      <c r="M22" s="62"/>
-      <c r="N22" s="42" t="s">
+      <c r="I22" s="56"/>
+      <c r="J22" s="56"/>
+      <c r="K22" s="56"/>
+      <c r="L22" s="56"/>
+      <c r="M22" s="57"/>
+      <c r="N22" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="O22" s="63"/>
-      <c r="P22" s="63"/>
-      <c r="Q22" s="63"/>
-      <c r="R22" s="63"/>
-      <c r="S22" s="63"/>
-      <c r="T22" s="63"/>
-      <c r="U22" s="63"/>
+      <c r="O22" s="59"/>
+      <c r="P22" s="59"/>
+      <c r="Q22" s="59"/>
+      <c r="R22" s="59"/>
+      <c r="S22" s="59"/>
+      <c r="T22" s="59"/>
+      <c r="U22" s="59"/>
     </row>
     <row r="23" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="43" t="s">
+      <c r="A23" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="43"/>
-      <c r="C23" s="43"/>
-      <c r="D23" s="43"/>
-      <c r="E23" s="43"/>
-      <c r="F23" s="43"/>
-      <c r="G23" s="44"/>
-      <c r="H23" s="45" t="s">
+      <c r="B23" s="60"/>
+      <c r="C23" s="60"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="60"/>
+      <c r="F23" s="60"/>
+      <c r="G23" s="61"/>
+      <c r="H23" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="I23" s="65"/>
-      <c r="J23" s="65"/>
-      <c r="K23" s="65"/>
-      <c r="L23" s="65"/>
-      <c r="M23" s="66"/>
-      <c r="N23" s="46" t="s">
+      <c r="I23" s="63"/>
+      <c r="J23" s="63"/>
+      <c r="K23" s="63"/>
+      <c r="L23" s="63"/>
+      <c r="M23" s="64"/>
+      <c r="N23" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="O23" s="64"/>
-      <c r="P23" s="64"/>
-      <c r="Q23" s="64"/>
-      <c r="R23" s="64"/>
-      <c r="S23" s="64"/>
-      <c r="T23" s="64"/>
-      <c r="U23" s="64"/>
+      <c r="O23" s="66"/>
+      <c r="P23" s="66"/>
+      <c r="Q23" s="66"/>
+      <c r="R23" s="66"/>
+      <c r="S23" s="66"/>
+      <c r="T23" s="66"/>
+      <c r="U23" s="66"/>
     </row>
     <row r="24" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="25" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2594,11 +2594,19 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="C1:L1"/>
-    <mergeCell ref="B2:P3"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="N5:T5"/>
-    <mergeCell ref="H6:T6"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:T15"/>
+    <mergeCell ref="C16:G18"/>
+    <mergeCell ref="H16:T18"/>
+    <mergeCell ref="A20:G20"/>
+    <mergeCell ref="H20:M20"/>
+    <mergeCell ref="N20:U20"/>
+    <mergeCell ref="A22:G22"/>
+    <mergeCell ref="H22:M22"/>
+    <mergeCell ref="N22:U22"/>
+    <mergeCell ref="A23:G23"/>
+    <mergeCell ref="H23:M23"/>
+    <mergeCell ref="N23:U23"/>
     <mergeCell ref="C13:G13"/>
     <mergeCell ref="H13:T13"/>
     <mergeCell ref="C14:G14"/>
@@ -2608,19 +2616,11 @@
     <mergeCell ref="H9:T9"/>
     <mergeCell ref="H10:T10"/>
     <mergeCell ref="H11:T11"/>
-    <mergeCell ref="A22:G22"/>
-    <mergeCell ref="H22:M22"/>
-    <mergeCell ref="N22:U22"/>
-    <mergeCell ref="A23:G23"/>
-    <mergeCell ref="H23:M23"/>
-    <mergeCell ref="N23:U23"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="H15:T15"/>
-    <mergeCell ref="C16:G18"/>
-    <mergeCell ref="H16:T18"/>
-    <mergeCell ref="A20:G20"/>
-    <mergeCell ref="H20:M20"/>
-    <mergeCell ref="N20:U20"/>
+    <mergeCell ref="C1:L1"/>
+    <mergeCell ref="B2:P3"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="N5:T5"/>
+    <mergeCell ref="H6:T6"/>
   </mergeCells>
   <conditionalFormatting sqref="H11 U11">
     <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="sindi">
@@ -2633,7 +2633,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.94488188976377963" bottom="0.74803149606299213" header="0" footer="0"/>
-  <pageSetup orientation="portrait"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>